--- a/grading_temp.xlsx
+++ b/grading_temp.xlsx
@@ -2027,6 +2027,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>